--- a/Data/Defrost/Defrost_Update.xlsx
+++ b/Data/Defrost/Defrost_Update.xlsx
@@ -3690,7 +3690,7 @@
   <dimension ref="A1:DD61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="CT58" sqref="CT58"/>
     </sheetView>
   </sheetViews>
